--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3182518.524741584</v>
+        <v>3206242.121710005</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6552513.316172467</v>
+        <v>7076675.664630482</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7381353.115552372</v>
+        <v>7257212.997787208</v>
       </c>
     </row>
     <row r="11">
@@ -1819,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.755108472589199e-12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.243127883067e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.105604496842716e-11</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>2.507050567146507e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -5446,25 +5448,25 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6.823341891504242e-12</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -7175,25 +7177,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.532374310248997e-12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C11" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059604</v>
       </c>
       <c r="D11" t="n">
-        <v>59.43163189668957</v>
+        <v>77.944719900763</v>
       </c>
       <c r="E11" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F11" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G11" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H11" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I11" t="n">
-        <v>42.87726772795465</v>
+        <v>54.85230342813418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565538</v>
       </c>
       <c r="S11" t="n">
-        <v>10.14259167045582</v>
+        <v>24.79118666175492</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7265160450307033</v>
+        <v>19.22603698641529</v>
       </c>
       <c r="V11" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848999</v>
       </c>
       <c r="W11" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683852</v>
       </c>
       <c r="X11" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="12">
@@ -23388,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>12.76695827300779</v>
       </c>
       <c r="U12" t="n">
-        <v>10.79019035854258</v>
+        <v>29.29730877503846</v>
       </c>
       <c r="V12" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652165493</v>
       </c>
       <c r="W12" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187374</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>9.860831706423483</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322803</v>
       </c>
     </row>
     <row r="13">
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6039317473980326</v>
+        <v>15.69657002817695</v>
       </c>
       <c r="S13" t="n">
-        <v>7.808307249808777</v>
+        <v>24.99567707362431</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>45.74607419335764</v>
+        <v>64.25501284475422</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>3.473906374014945</v>
       </c>
       <c r="W13" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394389</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C14" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059604</v>
       </c>
       <c r="D14" t="n">
-        <v>59.43163189668957</v>
+        <v>77.944719900763</v>
       </c>
       <c r="E14" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F14" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G14" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H14" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I14" t="n">
-        <v>42.87726772795463</v>
+        <v>54.85230342813415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>18.91315103193028</v>
+        <v>26.7733390156554</v>
       </c>
       <c r="S14" t="n">
-        <v>10.14259167045583</v>
+        <v>24.79118666175491</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7265160450307064</v>
+        <v>19.2260369864153</v>
       </c>
       <c r="V14" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848999</v>
       </c>
       <c r="W14" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683852</v>
       </c>
       <c r="X14" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="15">
@@ -23625,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>12.76695827300779</v>
       </c>
       <c r="U15" t="n">
-        <v>10.79019035854259</v>
+        <v>29.29730877503845</v>
       </c>
       <c r="V15" t="n">
-        <v>7.887858517570265</v>
+        <v>26.4009465216437</v>
       </c>
       <c r="W15" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187374</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>9.860831706423483</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322803</v>
       </c>
     </row>
     <row r="16">
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6039317473980361</v>
+        <v>15.69657002817695</v>
       </c>
       <c r="S16" t="n">
-        <v>7.808307249808763</v>
+        <v>24.99567707362431</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.74607419335087</v>
+        <v>64.25501284475422</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.473906374014945</v>
       </c>
       <c r="W16" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394389</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C17" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D17" t="n">
-        <v>59.43163189668957</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E17" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F17" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898949</v>
       </c>
       <c r="G17" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H17" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I17" t="n">
-        <v>42.87726772795465</v>
+        <v>54.85230342813415</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S17" t="n">
-        <v>10.14259167045582</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7265160450307033</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V17" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W17" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X17" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="18">
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>12.76695827300776</v>
       </c>
       <c r="U18" t="n">
-        <v>10.79019035854258</v>
+        <v>29.29730877503843</v>
       </c>
       <c r="V18" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W18" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="19">
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6039317473980326</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S19" t="n">
-        <v>7.808307249808777</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.74607419335764</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W19" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C20" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D20" t="n">
-        <v>59.43163189668957</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E20" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F20" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G20" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H20" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I20" t="n">
-        <v>42.87726772795465</v>
+        <v>54.85230342813412</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565537</v>
       </c>
       <c r="S20" t="n">
-        <v>10.14259167045582</v>
+        <v>24.79118666175488</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7265160450307033</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V20" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W20" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X20" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="21">
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U21" t="n">
-        <v>10.79019035854258</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V21" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W21" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="22">
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6039317473980326</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S22" t="n">
-        <v>7.808307249808777</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.74607419335764</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W22" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C23" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D23" t="n">
-        <v>59.43163189668957</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E23" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F23" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G23" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H23" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I23" t="n">
-        <v>42.87726772795465</v>
+        <v>54.85230342813412</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565537</v>
       </c>
       <c r="S23" t="n">
-        <v>10.14259167045582</v>
+        <v>24.79118666175488</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7265160450307033</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V23" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W23" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X23" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y23" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="24">
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U24" t="n">
-        <v>10.79019035854258</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V24" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W24" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="25">
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6039317473980326</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S25" t="n">
-        <v>7.808307249808777</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>45.74607419335764</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W25" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.9605020895113</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C26" t="n">
-        <v>75.25866269652258</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D26" t="n">
-        <v>59.43163189668954</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E26" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F26" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G26" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I26" t="n">
-        <v>42.8772677279546</v>
+        <v>54.85230342813415</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S26" t="n">
-        <v>10.1425916704558</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.726516045030678</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V26" t="n">
-        <v>61.01905078441652</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W26" t="n">
-        <v>69.80313026276505</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X26" t="n">
-        <v>94.25950798485283</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y26" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="27">
@@ -24573,22 +24575,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>12.76695827300776</v>
       </c>
       <c r="U27" t="n">
-        <v>10.79019035854256</v>
+        <v>29.29730877503843</v>
       </c>
       <c r="V27" t="n">
-        <v>7.887858517570237</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W27" t="n">
-        <v>47.12676205780028</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.762173369154567</v>
+        <v>27.27526137323708</v>
       </c>
     </row>
     <row r="28">
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6039317473980077</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S28" t="n">
-        <v>7.808307249808735</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>45.74607419334654</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W28" t="n">
-        <v>50.07440318987042</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C29" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D29" t="n">
-        <v>59.43163189668957</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E29" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F29" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G29" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I29" t="n">
-        <v>42.87726772795465</v>
+        <v>54.85230342813412</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565537</v>
       </c>
       <c r="S29" t="n">
-        <v>10.14259167045582</v>
+        <v>24.79118666175488</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7265160450307033</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V29" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W29" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X29" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y29" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="30">
@@ -24810,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U30" t="n">
-        <v>10.79019035854258</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V30" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W30" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="31">
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6039317473980326</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S31" t="n">
-        <v>7.808307249808777</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>45.74607419335764</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W31" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.9605020895113</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C32" t="n">
-        <v>75.25866269652258</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D32" t="n">
-        <v>59.43163189668954</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E32" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F32" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G32" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H32" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I32" t="n">
-        <v>42.87726772795462</v>
+        <v>54.85230342813415</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.91315103193023</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S32" t="n">
-        <v>10.14259167045579</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7265160450306749</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V32" t="n">
-        <v>61.01905078441652</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W32" t="n">
-        <v>69.80313026276505</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X32" t="n">
-        <v>94.25950798485283</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y32" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="33">
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>12.76695827300776</v>
       </c>
       <c r="U33" t="n">
-        <v>10.79019035854255</v>
+        <v>29.29730877503843</v>
       </c>
       <c r="V33" t="n">
-        <v>7.887858517570237</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W33" t="n">
-        <v>47.12676205780028</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.762173369154567</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="34">
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6039317473980041</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S34" t="n">
-        <v>7.808307249808749</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.74607419335761</v>
+        <v>64.25501284477032</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W34" t="n">
-        <v>50.07440318987042</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C35" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D35" t="n">
-        <v>59.43163189668957</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E35" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F35" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G35" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H35" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I35" t="n">
-        <v>42.87726772795465</v>
+        <v>54.85230342813412</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.91315103193025</v>
+        <v>26.77333901565537</v>
       </c>
       <c r="S35" t="n">
-        <v>10.14259167045582</v>
+        <v>24.79118666175488</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.7265160450307033</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V35" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W35" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X35" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="36">
@@ -25284,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U36" t="n">
-        <v>10.79019035854258</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V36" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W36" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="37">
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6039317473980326</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S37" t="n">
-        <v>7.808307249808777</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.74607419335764</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W37" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.9605020895114</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C38" t="n">
-        <v>75.25866269652261</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D38" t="n">
-        <v>59.43163189668957</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E38" t="n">
-        <v>105.0295966205128</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F38" t="n">
-        <v>149.2214708948706</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G38" t="n">
-        <v>177.9524243091316</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H38" t="n">
-        <v>111.8099008922426</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I38" t="n">
-        <v>42.87726772795463</v>
+        <v>54.85230342813412</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.91315103192778</v>
+        <v>26.77333901565537</v>
       </c>
       <c r="S38" t="n">
-        <v>10.14259167045583</v>
+        <v>24.79118666175488</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7265160450307064</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V38" t="n">
-        <v>61.01905078441655</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W38" t="n">
-        <v>69.80313026276508</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X38" t="n">
-        <v>94.25950798485286</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y38" t="n">
-        <v>127.8004799003897</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="39">
@@ -25521,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U39" t="n">
-        <v>10.79019035854259</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V39" t="n">
-        <v>7.887858517570265</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W39" t="n">
-        <v>47.12676205780031</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.762173369154596</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="40">
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.6039317473980361</v>
+        <v>15.69657002817692</v>
       </c>
       <c r="S40" t="n">
-        <v>7.808307249808763</v>
+        <v>24.99567707362428</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>45.74607419335763</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W40" t="n">
-        <v>50.07440318987045</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>425.1615556852395</v>
+        <v>424.9919674016289</v>
       </c>
       <c r="H41" t="n">
-        <v>359.0190322683504</v>
+        <v>357.2822362588244</v>
       </c>
       <c r="I41" t="n">
-        <v>290.0863991040625</v>
+        <v>283.5483468001686</v>
       </c>
       <c r="J41" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K41" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L41" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M41" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N41" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O41" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P41" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R41" t="n">
-        <v>266.1222824080381</v>
+        <v>255.4693823876898</v>
       </c>
       <c r="S41" t="n">
-        <v>257.3517230465637</v>
+        <v>253.4872300337893</v>
       </c>
       <c r="T41" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U41" t="n">
-        <v>247.9356474211386</v>
+        <v>247.9220803584497</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,49 +25721,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H42" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I42" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J42" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K42" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L42" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M42" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N42" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O42" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P42" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R42" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S42" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684568</v>
       </c>
       <c r="T42" t="n">
-        <v>241.8287383772942</v>
+        <v>241.4630016450422</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9993217346504</v>
+        <v>257.9933521470729</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H43" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I43" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J43" t="n">
-        <v>163.8559857109393</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K43" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L43" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N43" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O43" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P43" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R43" t="n">
-        <v>247.8130631235059</v>
+        <v>244.3926134002114</v>
       </c>
       <c r="S43" t="n">
-        <v>255.0174386259166</v>
+        <v>253.6917204456587</v>
       </c>
       <c r="T43" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9552055694655</v>
+        <v>292.9510562167886</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>425.1615556852395</v>
+        <v>424.9919674016289</v>
       </c>
       <c r="H44" t="n">
-        <v>359.0190322683504</v>
+        <v>357.2822362588244</v>
       </c>
       <c r="I44" t="n">
-        <v>290.0863991040625</v>
+        <v>283.5483468001686</v>
       </c>
       <c r="J44" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K44" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L44" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M44" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N44" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O44" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P44" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R44" t="n">
-        <v>266.1222824080381</v>
+        <v>255.4693823876898</v>
       </c>
       <c r="S44" t="n">
-        <v>257.3517230465637</v>
+        <v>253.4872300337893</v>
       </c>
       <c r="T44" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U44" t="n">
-        <v>247.9356474211386</v>
+        <v>247.9220803584497</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,49 +25958,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H45" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I45" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J45" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K45" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L45" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M45" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N45" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O45" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P45" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R45" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S45" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T45" t="n">
-        <v>241.8287383772942</v>
+        <v>241.4630016450422</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9993217346504</v>
+        <v>257.993352147071</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H46" t="n">
-        <v>171.7086235718666</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I46" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J46" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K46" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N46" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O46" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P46" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q46" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R46" t="n">
-        <v>247.8130631235059</v>
+        <v>244.3926134002114</v>
       </c>
       <c r="S46" t="n">
-        <v>255.0174386259166</v>
+        <v>253.6917204456587</v>
       </c>
       <c r="T46" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9552055694655</v>
+        <v>292.9510562167886</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567082</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672530.3905047862</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567083</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672530.3905047863</v>
+        <v>652939.3457567083</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567083</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672530.390504786</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>672530.3905047862</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>152797.9126996573</v>
+        <v>172128.7841713438</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>152797.9126996574</v>
+        <v>172128.7841713438</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996991.2386902553</v>
+        <v>996991.2386902556</v>
       </c>
       <c r="C2" t="n">
-        <v>996991.2386902554</v>
+        <v>996991.2386902556</v>
       </c>
       <c r="D2" t="n">
         <v>996991.2386902556</v>
       </c>
       <c r="E2" t="n">
-        <v>896707.1873397158</v>
+        <v>870585.7943422789</v>
       </c>
       <c r="F2" t="n">
-        <v>896707.1873397161</v>
+        <v>870585.7943422787</v>
       </c>
       <c r="G2" t="n">
-        <v>896707.1873397159</v>
+        <v>870585.794342279</v>
       </c>
       <c r="H2" t="n">
-        <v>896707.1873397158</v>
+        <v>870585.7943422787</v>
       </c>
       <c r="I2" t="n">
-        <v>896707.1873397159</v>
+        <v>870585.7943422791</v>
       </c>
       <c r="J2" t="n">
-        <v>896707.1873397162</v>
+        <v>870585.794342279</v>
       </c>
       <c r="K2" t="n">
-        <v>896707.1873397158</v>
+        <v>870585.7943422787</v>
       </c>
       <c r="L2" t="n">
-        <v>896707.1873397159</v>
+        <v>870585.794342279</v>
       </c>
       <c r="M2" t="n">
-        <v>896707.1873397158</v>
+        <v>870585.7943422787</v>
       </c>
       <c r="N2" t="n">
-        <v>896707.187339716</v>
+        <v>870585.7943422791</v>
       </c>
       <c r="O2" t="n">
-        <v>203730.5502662098</v>
+        <v>229505.0455617917</v>
       </c>
       <c r="P2" t="n">
-        <v>203730.5502662098</v>
+        <v>229505.0455617917</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465658.4581859658</v>
+        <v>484739.6120673175</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>197767.3051008863</v>
+        <v>182956.8346976275</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844986</v>
       </c>
       <c r="F4" t="n">
-        <v>395528.2485795182</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="G4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="H4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="I4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="J4" t="n">
-        <v>395528.2485795183</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="K4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="L4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="M4" t="n">
-        <v>395528.2485795181</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="N4" t="n">
-        <v>395528.2485795182</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="F5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="G5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="H5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="I5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="J5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="K5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="L5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="M5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="N5" t="n">
-        <v>28051.7373980901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="O5" t="n">
-        <v>7269.112932432081</v>
+        <v>8188.747797380945</v>
       </c>
       <c r="P5" t="n">
-        <v>7269.112932432081</v>
+        <v>8188.747797380945</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394313.8650159192</v>
+        <v>394313.8650159193</v>
       </c>
       <c r="C6" t="n">
         <v>394313.8650159193</v>
       </c>
       <c r="D6" t="n">
-        <v>394313.8650159194</v>
+        <v>394313.8650159193</v>
       </c>
       <c r="E6" t="n">
-        <v>7468.743176141848</v>
+        <v>-7476.597377161721</v>
       </c>
       <c r="F6" t="n">
-        <v>473127.2013621079</v>
+        <v>477263.0146901553</v>
       </c>
       <c r="G6" t="n">
-        <v>473127.2013621078</v>
+        <v>477263.0146901558</v>
       </c>
       <c r="H6" t="n">
-        <v>473127.2013621076</v>
+        <v>477263.0146901553</v>
       </c>
       <c r="I6" t="n">
-        <v>473127.2013621078</v>
+        <v>477263.0146901557</v>
       </c>
       <c r="J6" t="n">
-        <v>275359.8962612216</v>
+        <v>294306.1799925283</v>
       </c>
       <c r="K6" t="n">
-        <v>473127.2013621076</v>
+        <v>477263.0146901553</v>
       </c>
       <c r="L6" t="n">
-        <v>473127.2013621078</v>
+        <v>477263.0146901558</v>
       </c>
       <c r="M6" t="n">
-        <v>473127.2013621076</v>
+        <v>477263.0146901553</v>
       </c>
       <c r="N6" t="n">
-        <v>473127.2013621078</v>
+        <v>477263.0146901557</v>
       </c>
       <c r="O6" t="n">
-        <v>196461.4373337778</v>
+        <v>221316.2977644107</v>
       </c>
       <c r="P6" t="n">
-        <v>196461.4373337778</v>
+        <v>221316.2977644107</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="K2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="L2" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="M2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="N2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="F3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="G3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="H3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="I3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="J3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="K3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="L3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="M3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="N3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="O3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="P3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333.4455473592699</v>
+        <v>375.6306329073827</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J11" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K11" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L11" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M11" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N11" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O11" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P11" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="12">
@@ -28181,61 +28183,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H12" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I12" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J12" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K12" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L12" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M12" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N12" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O12" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P12" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R12" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S12" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684473</v>
       </c>
       <c r="T12" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U12" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V12" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W12" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="13">
@@ -28260,55 +28262,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H13" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I13" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J13" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K13" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L13" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M13" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N13" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O13" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P13" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q13" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R13" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S13" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U13" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V13" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W13" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X13" t="n">
         <v>214.9420418072343</v>
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J14" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K14" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M14" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N14" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O14" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P14" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="15">
@@ -28418,61 +28420,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H15" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I15" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J15" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K15" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L15" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M15" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N15" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O15" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P15" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R15" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S15" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T15" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U15" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V15" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W15" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X15" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y15" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="16">
@@ -28497,55 +28499,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H16" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I16" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J16" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K16" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L16" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M16" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N16" t="n">
-        <v>115.4744376461978</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O16" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P16" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q16" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R16" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S16" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T16" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U16" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W16" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X16" t="n">
         <v>214.9420418072343</v>
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J17" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896372</v>
       </c>
       <c r="K17" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L17" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M17" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N17" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O17" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P17" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y17" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="18">
@@ -28655,61 +28657,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H18" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I18" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J18" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K18" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L18" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M18" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N18" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O18" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P18" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R18" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S18" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T18" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U18" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V18" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W18" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X18" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="19">
@@ -28734,55 +28736,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H19" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I19" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J19" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K19" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L19" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M19" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N19" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O19" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P19" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q19" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R19" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S19" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T19" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U19" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V19" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W19" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X19" t="n">
         <v>214.9420418072343</v>
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J20" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K20" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L20" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M20" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N20" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O20" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P20" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y20" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="21">
@@ -28892,61 +28894,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H21" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I21" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J21" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K21" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L21" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M21" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N21" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O21" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P21" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R21" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S21" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T21" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U21" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V21" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W21" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X21" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y21" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="22">
@@ -28971,55 +28973,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H22" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I22" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J22" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K22" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L22" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M22" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N22" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O22" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P22" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q22" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R22" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S22" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T22" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U22" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V22" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W22" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X22" t="n">
         <v>214.9420418072343</v>
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J23" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K23" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L23" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N23" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O23" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P23" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T23" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y23" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="24">
@@ -29129,61 +29131,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H24" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I24" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J24" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K24" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L24" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M24" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N24" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O24" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P24" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R24" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S24" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T24" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U24" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V24" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W24" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X24" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y24" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="25">
@@ -29208,55 +29210,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H25" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I25" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J25" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K25" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M25" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N25" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O25" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P25" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q25" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R25" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S25" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T25" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U25" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V25" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W25" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X25" t="n">
         <v>214.9420418072343</v>
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J26" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K26" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L26" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N26" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O26" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P26" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T26" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="27">
@@ -29366,61 +29368,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H27" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I27" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J27" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K27" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L27" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M27" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N27" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O27" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P27" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R27" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S27" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684495</v>
       </c>
       <c r="T27" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U27" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V27" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W27" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y27" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="28">
@@ -29430,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.5391974632859</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C28" t="n">
         <v>165.0035252842657</v>
@@ -29445,55 +29447,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H28" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I28" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J28" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K28" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M28" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N28" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O28" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P28" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q28" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R28" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S28" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T28" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U28" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V28" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W28" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X28" t="n">
         <v>214.9420418072343</v>
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J29" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K29" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L29" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M29" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N29" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O29" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P29" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T29" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="30">
@@ -29603,61 +29605,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H30" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I30" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J30" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K30" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L30" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M30" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N30" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O30" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P30" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R30" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S30" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T30" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U30" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V30" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W30" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X30" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="31">
@@ -29682,55 +29684,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H31" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I31" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J31" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K31" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L31" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M31" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N31" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O31" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P31" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q31" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R31" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S31" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T31" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U31" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V31" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W31" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X31" t="n">
         <v>214.9420418072343</v>
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J32" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K32" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L32" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M32" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N32" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O32" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P32" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T32" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="33">
@@ -29840,61 +29842,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H33" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I33" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J33" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K33" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L33" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M33" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N33" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O33" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P33" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R33" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S33" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T33" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U33" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V33" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W33" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X33" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="34">
@@ -29919,55 +29921,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H34" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I34" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J34" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K34" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L34" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M34" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N34" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O34" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P34" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q34" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R34" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S34" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T34" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104549</v>
       </c>
       <c r="U34" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V34" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W34" t="n">
-        <v>247.2091313761079</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X34" t="n">
         <v>214.9420418072343</v>
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J35" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K35" t="n">
-        <v>187.1313384208503</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L35" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M35" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N35" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O35" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P35" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="36">
@@ -30077,61 +30079,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H36" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I36" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J36" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K36" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L36" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M36" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N36" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O36" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P36" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R36" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S36" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T36" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U36" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V36" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W36" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X36" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="37">
@@ -30156,55 +30158,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H37" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I37" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J37" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K37" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L37" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M37" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N37" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O37" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P37" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q37" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R37" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S37" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T37" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U37" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V37" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W37" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X37" t="n">
         <v>214.9420418072343</v>
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J38" t="n">
-        <v>180.4276389757292</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K38" t="n">
-        <v>187.1313384208529</v>
+        <v>165.5590727895307</v>
       </c>
       <c r="L38" t="n">
-        <v>171.5818988392022</v>
+        <v>144.8195957733376</v>
       </c>
       <c r="M38" t="n">
-        <v>138.9352602797518</v>
+        <v>109.1570415752289</v>
       </c>
       <c r="N38" t="n">
-        <v>133.6102077246294</v>
+        <v>103.3501463092982</v>
       </c>
       <c r="O38" t="n">
-        <v>148.0530168059528</v>
+        <v>119.4792988857735</v>
       </c>
       <c r="P38" t="n">
-        <v>182.9902552191081</v>
+        <v>158.6032480505632</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.4894883479167</v>
+        <v>198.1758615861729</v>
       </c>
       <c r="R38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T38" t="n">
-        <v>220.4961873656892</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y38" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="39">
@@ -30314,61 +30316,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H39" t="n">
-        <v>149.631802706106</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I39" t="n">
-        <v>137.0300227191484</v>
+        <v>133.905938553557</v>
       </c>
       <c r="J39" t="n">
-        <v>138.3493458270501</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K39" t="n">
-        <v>108.1766334547839</v>
+        <v>93.5244797319078</v>
       </c>
       <c r="L39" t="n">
-        <v>69.42235938738369</v>
+        <v>49.7207305188995</v>
       </c>
       <c r="M39" t="n">
-        <v>49.23998181247774</v>
+        <v>26.24911018875625</v>
       </c>
       <c r="N39" t="n">
-        <v>26.89266408959261</v>
+        <v>3.293292505464876</v>
       </c>
       <c r="O39" t="n">
-        <v>61.07341979204944</v>
+        <v>39.48460530404498</v>
       </c>
       <c r="P39" t="n">
-        <v>80.75037203953292</v>
+        <v>63.42344510940336</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.9175601506888</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R39" t="n">
-        <v>192.1984848054242</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S39" t="n">
-        <v>226.4000077278574</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T39" t="n">
-        <v>241.8287383772942</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U39" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V39" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W39" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X39" t="n">
-        <v>238.5568750784579</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y39" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="40">
@@ -30393,55 +30395,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.92444481789</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H40" t="n">
-        <v>171.7086235718632</v>
+        <v>171.0322790855344</v>
       </c>
       <c r="I40" t="n">
-        <v>179.6660901299454</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J40" t="n">
-        <v>163.855985710936</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K40" t="n">
-        <v>139.7869691951287</v>
+        <v>130.9488479934093</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7913943420368</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M40" t="n">
-        <v>131.4986354211551</v>
+        <v>119.5740873866287</v>
       </c>
       <c r="N40" t="n">
-        <v>115.4744376461909</v>
+        <v>103.8334287112502</v>
       </c>
       <c r="O40" t="n">
-        <v>140.0015246507703</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P40" t="n">
-        <v>151.084079332853</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q40" t="n">
-        <v>195.8453499965998</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R40" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S40" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T40" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U40" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V40" t="n">
-        <v>232.1699497460494</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W40" t="n">
-        <v>247.2091313761078</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X40" t="n">
         <v>214.9420418072343</v>
@@ -30639,7 +30641,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-2.357376985566646e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30870,7 +30872,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.357376985566646e-12</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H11" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I11" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J11" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K11" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L11" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M11" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N11" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O11" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P11" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R11" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S11" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T11" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H12" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I12" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J12" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K12" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L12" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N12" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O12" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P12" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R12" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S12" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T12" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H13" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I13" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J13" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K13" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L13" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M13" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N13" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O13" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P13" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R13" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S13" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T13" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H14" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I14" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J14" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K14" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L14" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M14" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N14" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O14" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P14" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R14" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S14" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T14" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H15" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I15" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J15" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K15" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L15" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N15" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O15" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P15" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R15" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S15" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T15" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H16" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I16" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J16" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K16" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L16" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M16" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N16" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O16" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P16" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R16" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S16" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T16" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H17" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I17" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J17" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K17" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L17" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M17" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N17" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O17" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P17" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R17" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S17" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T17" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H18" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I18" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J18" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K18" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L18" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M18" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N18" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O18" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P18" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R18" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S18" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T18" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H19" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I19" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J19" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K19" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L19" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M19" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N19" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O19" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P19" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R19" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S19" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T19" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H20" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I20" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J20" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K20" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L20" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M20" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N20" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O20" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P20" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R20" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S20" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T20" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H21" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I21" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J21" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K21" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L21" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M21" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N21" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O21" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P21" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R21" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S21" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T21" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H22" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I22" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J22" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K22" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L22" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M22" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N22" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O22" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P22" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R22" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S22" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T22" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H23" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I23" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J23" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K23" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L23" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M23" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N23" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O23" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P23" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R23" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S23" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T23" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H24" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I24" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J24" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K24" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L24" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M24" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N24" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O24" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P24" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R24" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S24" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T24" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H25" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I25" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J25" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K25" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L25" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M25" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N25" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O25" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P25" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R25" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S25" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T25" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H26" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I26" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J26" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K26" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L26" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M26" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N26" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O26" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P26" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R26" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S26" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T26" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H27" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I27" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J27" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K27" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L27" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N27" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O27" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P27" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R27" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S27" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T27" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H28" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I28" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J28" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K28" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L28" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M28" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N28" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O28" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P28" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R28" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S28" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T28" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H29" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I29" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J29" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K29" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L29" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M29" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N29" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O29" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P29" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R29" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S29" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T29" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H30" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I30" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J30" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K30" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L30" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N30" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O30" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P30" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R30" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S30" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T30" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H31" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I31" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J31" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K31" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L31" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M31" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N31" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O31" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P31" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R31" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S31" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T31" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H32" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I32" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J32" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K32" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L32" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M32" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N32" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O32" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P32" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R32" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S32" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T32" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H33" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I33" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J33" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K33" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L33" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N33" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O33" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P33" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R33" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S33" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T33" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H34" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I34" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J34" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K34" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L34" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M34" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N34" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O34" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P34" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R34" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S34" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T34" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H35" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I35" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J35" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K35" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L35" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M35" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N35" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P35" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R35" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S35" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T35" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H36" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I36" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J36" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K36" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L36" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M36" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N36" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O36" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P36" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R36" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S36" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T36" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H37" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I37" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J37" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K37" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L37" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M37" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N37" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O37" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P37" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R37" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S37" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T37" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H38" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I38" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J38" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K38" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L38" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M38" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N38" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P38" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R38" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S38" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T38" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H39" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I39" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J39" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K39" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L39" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N39" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O39" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P39" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R39" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S39" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T39" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H40" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I40" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J40" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K40" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L40" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M40" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N40" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O40" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P40" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R40" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S40" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T40" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H41" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I41" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J41" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K41" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L41" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M41" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N41" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O41" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P41" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R41" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S41" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T41" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H42" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I42" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J42" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K42" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L42" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M42" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N42" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O42" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P42" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R42" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S42" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T42" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H43" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I43" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J43" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K43" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L43" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M43" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N43" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O43" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P43" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R43" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S43" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T43" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.340484612499576</v>
+        <v>1.51007289611008</v>
       </c>
       <c r="H44" t="n">
-        <v>13.72823803776129</v>
+        <v>15.46503404728736</v>
       </c>
       <c r="I44" t="n">
-        <v>51.67903302338997</v>
+        <v>58.21708532728391</v>
       </c>
       <c r="J44" t="n">
-        <v>113.771955880136</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K44" t="n">
-        <v>170.5146695272431</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L44" t="n">
-        <v>211.5385254870271</v>
+        <v>238.3008285528917</v>
       </c>
       <c r="M44" t="n">
-        <v>235.3773687145664</v>
+        <v>265.1555874190893</v>
       </c>
       <c r="N44" t="n">
-        <v>239.1860206198309</v>
+        <v>269.4460820351621</v>
       </c>
       <c r="O44" t="n">
-        <v>225.8565767542882</v>
+        <v>254.4302946744674</v>
       </c>
       <c r="P44" t="n">
-        <v>192.7633628832048</v>
+        <v>217.1503700517498</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.7572576980637</v>
+        <v>163.0708844598075</v>
       </c>
       <c r="R44" t="n">
-        <v>84.20421653992659</v>
+        <v>94.85711656027489</v>
       </c>
       <c r="S44" t="n">
-        <v>30.54629310733413</v>
+        <v>34.41078612010848</v>
       </c>
       <c r="T44" t="n">
-        <v>5.867971391216899</v>
+        <v>6.610344102721879</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1072387689999661</v>
+        <v>0.1208058316888064</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7172224980935239</v>
+        <v>0.8079602292724836</v>
       </c>
       <c r="H45" t="n">
-        <v>6.926859389482193</v>
+        <v>7.80319484586846</v>
       </c>
       <c r="I45" t="n">
-        <v>24.6938447808516</v>
+        <v>27.81792894644297</v>
       </c>
       <c r="J45" t="n">
-        <v>67.76179750628334</v>
+        <v>76.33452324016916</v>
       </c>
       <c r="K45" t="n">
-        <v>115.8157048785494</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L45" t="n">
-        <v>155.7285077549119</v>
+        <v>175.4301366233961</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7278233108021</v>
+        <v>204.7186949345235</v>
       </c>
       <c r="N45" t="n">
-        <v>186.537618045824</v>
+        <v>210.1369896299518</v>
       </c>
       <c r="O45" t="n">
-        <v>170.6454774301728</v>
+        <v>192.2342919181772</v>
       </c>
       <c r="P45" t="n">
-        <v>136.9580400087537</v>
+        <v>154.2849669388833</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.55282273909614</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R45" t="n">
-        <v>44.53070913601723</v>
+        <v>50.16440791921615</v>
       </c>
       <c r="S45" t="n">
-        <v>13.3220933308161</v>
+        <v>15.00750689021476</v>
       </c>
       <c r="T45" t="n">
-        <v>2.89090998135065</v>
+        <v>3.256646713602684</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04718569066404765</v>
+        <v>0.05315527824161078</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6012952493363882</v>
+        <v>0.6773667150788867</v>
       </c>
       <c r="H46" t="n">
-        <v>5.346061398645347</v>
+        <v>6.022405884974106</v>
       </c>
       <c r="I46" t="n">
-        <v>18.08258804367975</v>
+        <v>20.37026448619053</v>
       </c>
       <c r="J46" t="n">
-        <v>42.51157412808265</v>
+        <v>47.88982675607729</v>
       </c>
       <c r="K46" t="n">
-        <v>69.85957533199128</v>
+        <v>78.69769653371064</v>
       </c>
       <c r="L46" t="n">
-        <v>89.3962046149754</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M46" t="n">
-        <v>94.2557634937031</v>
+        <v>106.1803115282295</v>
       </c>
       <c r="N46" t="n">
-        <v>92.014572109813</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O46" t="n">
-        <v>84.99035033347425</v>
+        <v>95.74270623678667</v>
       </c>
       <c r="P46" t="n">
-        <v>72.72392724701187</v>
+        <v>81.92442524917732</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.35027765124975</v>
+        <v>56.72022556901478</v>
       </c>
       <c r="R46" t="n">
-        <v>27.03642093834342</v>
+        <v>30.45687066163794</v>
       </c>
       <c r="S46" t="n">
-        <v>10.47893629979869</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T46" t="n">
-        <v>2.569170610800931</v>
+        <v>2.894203237155243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03279792269107576</v>
+        <v>0.03694727536793932</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.892264536872972e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3206242.121710005</v>
+        <v>3178536.88233198</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7076675.664630482</v>
+        <v>7076675.664630485</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7257212.997787208</v>
+        <v>7257212.997787207</v>
       </c>
     </row>
     <row r="11">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>-9.480248871045232e-12</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>9.480248871045232e-12</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -5029,19 +5029,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>4.501998773775995e-12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.501998773775995e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.501998773775995e-12</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.501998773775995e-12</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.501998773775995e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>9.576008960651749e-12</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>9.576008960651749e-12</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>9.576008960651749e-12</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C11" t="n">
-        <v>93.77175070059604</v>
+        <v>93.77175070059613</v>
       </c>
       <c r="D11" t="n">
-        <v>77.944719900763</v>
+        <v>77.94471990076309</v>
       </c>
       <c r="E11" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245863</v>
       </c>
       <c r="F11" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989486</v>
       </c>
       <c r="G11" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295946</v>
       </c>
       <c r="H11" t="n">
-        <v>128.5861928867899</v>
+        <v>128.58619288679</v>
       </c>
       <c r="I11" t="n">
-        <v>54.85230342813418</v>
+        <v>54.85230342813421</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>26.77333901565538</v>
+        <v>26.77333901565541</v>
       </c>
       <c r="S11" t="n">
-        <v>24.79118666175492</v>
+        <v>24.79118666175498</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>19.22603698641529</v>
+        <v>19.22603698641538</v>
       </c>
       <c r="V11" t="n">
-        <v>79.53213878848999</v>
+        <v>79.53213878849007</v>
       </c>
       <c r="W11" t="n">
-        <v>88.31621826683852</v>
+        <v>88.3162182668386</v>
       </c>
       <c r="X11" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y11" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="12">
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>12.76695827300779</v>
+        <v>12.76695827300787</v>
       </c>
       <c r="U12" t="n">
-        <v>29.29730877503846</v>
+        <v>29.29730877503854</v>
       </c>
       <c r="V12" t="n">
-        <v>26.40094652165493</v>
+        <v>26.40094652164379</v>
       </c>
       <c r="W12" t="n">
-        <v>65.63985006187374</v>
+        <v>65.63985006187383</v>
       </c>
       <c r="X12" t="n">
-        <v>9.860831706423483</v>
+        <v>9.860831706423568</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.27526137322803</v>
+        <v>27.27526137322812</v>
       </c>
     </row>
     <row r="13">
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.69657002817695</v>
+        <v>15.69657002817701</v>
       </c>
       <c r="S13" t="n">
-        <v>24.99567707362431</v>
+        <v>24.99567707362439</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>64.25501284475422</v>
+        <v>64.2550128447543</v>
       </c>
       <c r="V13" t="n">
-        <v>3.473906374014945</v>
+        <v>3.47390637401503</v>
       </c>
       <c r="W13" t="n">
-        <v>68.58749119394389</v>
+        <v>68.58749119394398</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C14" t="n">
-        <v>93.77175070059604</v>
+        <v>93.77175070059613</v>
       </c>
       <c r="D14" t="n">
-        <v>77.944719900763</v>
+        <v>77.94471990076309</v>
       </c>
       <c r="E14" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245863</v>
       </c>
       <c r="F14" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989441</v>
       </c>
       <c r="G14" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295946</v>
       </c>
       <c r="H14" t="n">
-        <v>128.5861928867899</v>
+        <v>128.58619288679</v>
       </c>
       <c r="I14" t="n">
-        <v>54.85230342813415</v>
+        <v>54.8523034281342</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>26.7733390156554</v>
+        <v>26.77333901565542</v>
       </c>
       <c r="S14" t="n">
-        <v>24.79118666175491</v>
+        <v>24.79118666175497</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>19.2260369864153</v>
+        <v>19.22603698641539</v>
       </c>
       <c r="V14" t="n">
-        <v>79.53213878848999</v>
+        <v>79.53213878849007</v>
       </c>
       <c r="W14" t="n">
-        <v>88.31621826683852</v>
+        <v>88.3162182668386</v>
       </c>
       <c r="X14" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="15">
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>12.76695827300779</v>
+        <v>12.76695827300788</v>
       </c>
       <c r="U15" t="n">
-        <v>29.29730877503845</v>
+        <v>29.29730877503854</v>
       </c>
       <c r="V15" t="n">
-        <v>26.4009465216437</v>
+        <v>26.40094652164379</v>
       </c>
       <c r="W15" t="n">
-        <v>65.63985006187374</v>
+        <v>65.63985006187383</v>
       </c>
       <c r="X15" t="n">
-        <v>9.860831706423483</v>
+        <v>9.860831706423568</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.27526137322803</v>
+        <v>27.27526137322812</v>
       </c>
     </row>
     <row r="16">
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.69657002817695</v>
+        <v>15.69657002817702</v>
       </c>
       <c r="S16" t="n">
-        <v>24.99567707362431</v>
+        <v>24.99567707362439</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>64.25501284475422</v>
+        <v>64.2550128447543</v>
       </c>
       <c r="V16" t="n">
-        <v>3.473906374014945</v>
+        <v>3.47390637401503</v>
       </c>
       <c r="W16" t="n">
-        <v>68.58749119394389</v>
+        <v>68.58749119394398</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C17" t="n">
-        <v>93.77175070059602</v>
+        <v>93.77175070059619</v>
       </c>
       <c r="D17" t="n">
-        <v>77.94471990076298</v>
+        <v>77.94471990076315</v>
       </c>
       <c r="E17" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245864</v>
       </c>
       <c r="F17" t="n">
-        <v>167.734558898949</v>
+        <v>167.7345588989442</v>
       </c>
       <c r="G17" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295947</v>
       </c>
       <c r="H17" t="n">
-        <v>128.5861928867899</v>
+        <v>128.5861928867901</v>
       </c>
       <c r="I17" t="n">
-        <v>54.85230342813415</v>
+        <v>54.85230342813426</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>26.77333901565535</v>
+        <v>26.77333901565548</v>
       </c>
       <c r="S17" t="n">
-        <v>24.79118666175489</v>
+        <v>24.79118666175503</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>19.22603698641527</v>
+        <v>19.22603698641544</v>
       </c>
       <c r="V17" t="n">
-        <v>79.53213878848996</v>
+        <v>79.53213878849013</v>
       </c>
       <c r="W17" t="n">
-        <v>88.31621826683849</v>
+        <v>88.31621826683866</v>
       </c>
       <c r="X17" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y17" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="18">
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>12.76695827300776</v>
+        <v>12.76695827300794</v>
       </c>
       <c r="U18" t="n">
-        <v>29.29730877503843</v>
+        <v>29.29730877503859</v>
       </c>
       <c r="V18" t="n">
-        <v>26.40094652164368</v>
+        <v>26.40094652164385</v>
       </c>
       <c r="W18" t="n">
-        <v>65.63985006187372</v>
+        <v>65.63985006187389</v>
       </c>
       <c r="X18" t="n">
-        <v>9.860831706423454</v>
+        <v>9.860831706423625</v>
       </c>
       <c r="Y18" t="n">
-        <v>27.27526137322801</v>
+        <v>27.27526137322818</v>
       </c>
     </row>
     <row r="19">
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817707</v>
       </c>
       <c r="S19" t="n">
-        <v>24.99567707362428</v>
+        <v>24.99567707362445</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>64.25501284475419</v>
+        <v>64.25501284475436</v>
       </c>
       <c r="V19" t="n">
-        <v>3.473906374014916</v>
+        <v>3.473906374015087</v>
       </c>
       <c r="W19" t="n">
-        <v>68.58749119394386</v>
+        <v>68.58749119394403</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C20" t="n">
-        <v>93.77175070059602</v>
+        <v>93.77175070059619</v>
       </c>
       <c r="D20" t="n">
-        <v>77.94471990076298</v>
+        <v>77.94471990076315</v>
       </c>
       <c r="E20" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245864</v>
       </c>
       <c r="F20" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989442</v>
       </c>
       <c r="G20" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295947</v>
       </c>
       <c r="H20" t="n">
-        <v>128.5861928867899</v>
+        <v>128.5861928867901</v>
       </c>
       <c r="I20" t="n">
-        <v>54.85230342813412</v>
+        <v>54.85230342813426</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>26.77333901565537</v>
+        <v>26.77333901565548</v>
       </c>
       <c r="S20" t="n">
-        <v>24.79118666175488</v>
+        <v>24.79118666175503</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>19.22603698641527</v>
+        <v>19.22603698641544</v>
       </c>
       <c r="V20" t="n">
-        <v>79.53213878848996</v>
+        <v>79.53213878849013</v>
       </c>
       <c r="W20" t="n">
-        <v>88.31621826683849</v>
+        <v>88.31621826683866</v>
       </c>
       <c r="X20" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y20" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="21">
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>12.76695827300777</v>
+        <v>12.76695827300794</v>
       </c>
       <c r="U21" t="n">
-        <v>29.29730877503842</v>
+        <v>29.29730877503859</v>
       </c>
       <c r="V21" t="n">
-        <v>26.40094652164368</v>
+        <v>26.40094652164385</v>
       </c>
       <c r="W21" t="n">
-        <v>65.63985006187372</v>
+        <v>65.63985006187389</v>
       </c>
       <c r="X21" t="n">
-        <v>9.860831706423454</v>
+        <v>9.860831706423625</v>
       </c>
       <c r="Y21" t="n">
-        <v>27.27526137322801</v>
+        <v>27.27526137322818</v>
       </c>
     </row>
     <row r="22">
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817707</v>
       </c>
       <c r="S22" t="n">
-        <v>24.99567707362428</v>
+        <v>24.99567707362445</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>64.25501284475419</v>
+        <v>64.25501284475436</v>
       </c>
       <c r="V22" t="n">
-        <v>3.473906374014916</v>
+        <v>3.473906374015087</v>
       </c>
       <c r="W22" t="n">
-        <v>68.58749119394386</v>
+        <v>68.58749119394403</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C23" t="n">
-        <v>93.77175070059602</v>
+        <v>93.77175070059619</v>
       </c>
       <c r="D23" t="n">
-        <v>77.94471990076298</v>
+        <v>77.94471990076315</v>
       </c>
       <c r="E23" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245864</v>
       </c>
       <c r="F23" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989442</v>
       </c>
       <c r="G23" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295947</v>
       </c>
       <c r="H23" t="n">
-        <v>128.5861928867899</v>
+        <v>128.5861928867901</v>
       </c>
       <c r="I23" t="n">
-        <v>54.85230342813412</v>
+        <v>54.85230342813426</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>26.77333901565537</v>
+        <v>26.77333901565548</v>
       </c>
       <c r="S23" t="n">
-        <v>24.79118666175488</v>
+        <v>24.79118666175503</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>19.22603698641527</v>
+        <v>19.22603698641544</v>
       </c>
       <c r="V23" t="n">
-        <v>79.53213878848996</v>
+        <v>79.53213878849013</v>
       </c>
       <c r="W23" t="n">
-        <v>88.31621826683849</v>
+        <v>88.31621826683866</v>
       </c>
       <c r="X23" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y23" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="24">
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>12.76695827300777</v>
+        <v>12.76695827300794</v>
       </c>
       <c r="U24" t="n">
-        <v>29.29730877503842</v>
+        <v>29.29730877503859</v>
       </c>
       <c r="V24" t="n">
-        <v>26.40094652164368</v>
+        <v>26.40094652164385</v>
       </c>
       <c r="W24" t="n">
-        <v>65.63985006187372</v>
+        <v>65.63985006187389</v>
       </c>
       <c r="X24" t="n">
-        <v>9.860831706423454</v>
+        <v>9.860831706423625</v>
       </c>
       <c r="Y24" t="n">
-        <v>27.27526137322801</v>
+        <v>27.27526137322818</v>
       </c>
     </row>
     <row r="25">
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817707</v>
       </c>
       <c r="S25" t="n">
-        <v>24.99567707362428</v>
+        <v>24.99567707362445</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>64.25501284475419</v>
+        <v>64.25501284475436</v>
       </c>
       <c r="V25" t="n">
-        <v>3.473906374014916</v>
+        <v>3.473906374015087</v>
       </c>
       <c r="W25" t="n">
-        <v>68.58749119394386</v>
+        <v>68.58749119394403</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>128.5861928867899</v>
       </c>
       <c r="I26" t="n">
-        <v>54.85230342813415</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>26.77333901565535</v>
+        <v>26.77333901565789</v>
       </c>
       <c r="S26" t="n">
-        <v>24.79118666175489</v>
+        <v>24.79118666175486</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>9.860831706423454</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.27526137323708</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="28">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817689</v>
       </c>
       <c r="S28" t="n">
         <v>24.99567707362428</v>
@@ -24700,7 +24700,7 @@
         <v>128.5861928867899</v>
       </c>
       <c r="I29" t="n">
-        <v>54.85230342813412</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>26.77333901565537</v>
+        <v>26.77333901565531</v>
       </c>
       <c r="S29" t="n">
-        <v>24.79118666175488</v>
+        <v>24.79118666175486</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.76695827300777</v>
+        <v>12.76695827300776</v>
       </c>
       <c r="U30" t="n">
         <v>29.29730877503842</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.69657002817692</v>
+        <v>15.6965700281769</v>
       </c>
       <c r="S31" t="n">
         <v>24.99567707362428</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C32" t="n">
-        <v>93.77175070059602</v>
+        <v>93.77175070059616</v>
       </c>
       <c r="D32" t="n">
-        <v>77.94471990076298</v>
+        <v>77.94471990076312</v>
       </c>
       <c r="E32" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245863</v>
       </c>
       <c r="F32" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989442</v>
       </c>
       <c r="G32" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295947</v>
       </c>
       <c r="H32" t="n">
-        <v>128.5861928867899</v>
+        <v>128.5861928867901</v>
       </c>
       <c r="I32" t="n">
-        <v>54.85230342813415</v>
+        <v>54.85230342813423</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>26.77333901565535</v>
+        <v>26.77333901565545</v>
       </c>
       <c r="S32" t="n">
-        <v>24.79118666175489</v>
+        <v>24.791186661755</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>19.22603698641527</v>
+        <v>19.22603698641542</v>
       </c>
       <c r="V32" t="n">
-        <v>79.53213878848996</v>
+        <v>79.5321387884901</v>
       </c>
       <c r="W32" t="n">
-        <v>88.31621826683849</v>
+        <v>88.31621826683863</v>
       </c>
       <c r="X32" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y32" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="33">
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.76695827300776</v>
+        <v>12.76695827300791</v>
       </c>
       <c r="U33" t="n">
-        <v>29.29730877503843</v>
+        <v>29.29730877503857</v>
       </c>
       <c r="V33" t="n">
-        <v>26.40094652164368</v>
+        <v>26.40094652164382</v>
       </c>
       <c r="W33" t="n">
-        <v>65.63985006187372</v>
+        <v>65.63985006187386</v>
       </c>
       <c r="X33" t="n">
-        <v>9.860831706423454</v>
+        <v>9.860831706423596</v>
       </c>
       <c r="Y33" t="n">
-        <v>27.27526137322801</v>
+        <v>27.27526137322815</v>
       </c>
     </row>
     <row r="34">
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817705</v>
       </c>
       <c r="S34" t="n">
-        <v>24.99567707362428</v>
+        <v>24.99567707362442</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>64.25501284477032</v>
+        <v>64.25501284475433</v>
       </c>
       <c r="V34" t="n">
-        <v>3.473906374014916</v>
+        <v>3.473906374015058</v>
       </c>
       <c r="W34" t="n">
-        <v>68.58749119394386</v>
+        <v>68.587491193944</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C35" t="n">
-        <v>93.77175070059602</v>
+        <v>93.77175070059616</v>
       </c>
       <c r="D35" t="n">
-        <v>77.94471990076298</v>
+        <v>77.94471990076312</v>
       </c>
       <c r="E35" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245863</v>
       </c>
       <c r="F35" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989442</v>
       </c>
       <c r="G35" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295947</v>
       </c>
       <c r="H35" t="n">
-        <v>128.5861928867899</v>
+        <v>128.5861928867901</v>
       </c>
       <c r="I35" t="n">
-        <v>54.85230342813412</v>
+        <v>54.85230342813423</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>26.77333901565537</v>
+        <v>26.77333901565545</v>
       </c>
       <c r="S35" t="n">
-        <v>24.79118666175488</v>
+        <v>24.791186661755</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>19.22603698641527</v>
+        <v>19.22603698641542</v>
       </c>
       <c r="V35" t="n">
-        <v>79.53213878848996</v>
+        <v>79.5321387884901</v>
       </c>
       <c r="W35" t="n">
-        <v>88.31621826683849</v>
+        <v>88.31621826683863</v>
       </c>
       <c r="X35" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="36">
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>12.76695827300777</v>
+        <v>12.76695827300791</v>
       </c>
       <c r="U36" t="n">
-        <v>29.29730877503842</v>
+        <v>29.29730877503857</v>
       </c>
       <c r="V36" t="n">
-        <v>26.40094652164368</v>
+        <v>26.40094652164382</v>
       </c>
       <c r="W36" t="n">
-        <v>65.63985006187372</v>
+        <v>65.63985006187386</v>
       </c>
       <c r="X36" t="n">
-        <v>9.860831706423454</v>
+        <v>9.860831706423596</v>
       </c>
       <c r="Y36" t="n">
-        <v>27.27526137322801</v>
+        <v>27.27526137322815</v>
       </c>
     </row>
     <row r="37">
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817705</v>
       </c>
       <c r="S37" t="n">
-        <v>24.99567707362428</v>
+        <v>24.99567707362442</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>64.25501284475419</v>
+        <v>64.25501284475433</v>
       </c>
       <c r="V37" t="n">
-        <v>3.473906374014916</v>
+        <v>3.473906374015058</v>
       </c>
       <c r="W37" t="n">
-        <v>68.58749119394386</v>
+        <v>68.587491193944</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>129.4735900935848</v>
+        <v>129.4735900935849</v>
       </c>
       <c r="C38" t="n">
-        <v>93.77175070059602</v>
+        <v>93.77175070059616</v>
       </c>
       <c r="D38" t="n">
-        <v>77.94471990076298</v>
+        <v>77.94471990076312</v>
       </c>
       <c r="E38" t="n">
-        <v>123.5426846245862</v>
+        <v>123.5426846245863</v>
       </c>
       <c r="F38" t="n">
-        <v>167.734558898944</v>
+        <v>167.7345588989442</v>
       </c>
       <c r="G38" t="n">
-        <v>196.2959240295945</v>
+        <v>196.2959240295947</v>
       </c>
       <c r="H38" t="n">
-        <v>128.5861928867899</v>
+        <v>128.5861928867901</v>
       </c>
       <c r="I38" t="n">
-        <v>54.85230342813412</v>
+        <v>54.85230342813423</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.77333901565537</v>
+        <v>26.77333901565545</v>
       </c>
       <c r="S38" t="n">
-        <v>24.79118666175488</v>
+        <v>24.791186661755</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>19.22603698641527</v>
+        <v>19.22603698641542</v>
       </c>
       <c r="V38" t="n">
-        <v>79.53213878848996</v>
+        <v>79.5321387884901</v>
       </c>
       <c r="W38" t="n">
-        <v>88.31621826683849</v>
+        <v>88.31621826683863</v>
       </c>
       <c r="X38" t="n">
-        <v>112.7725959889263</v>
+        <v>112.7725959889264</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.3135679044632</v>
+        <v>146.3135679044633</v>
       </c>
     </row>
     <row r="39">
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>12.76695827300777</v>
+        <v>12.76695827300791</v>
       </c>
       <c r="U39" t="n">
-        <v>29.29730877503842</v>
+        <v>29.29730877503857</v>
       </c>
       <c r="V39" t="n">
-        <v>26.40094652164368</v>
+        <v>26.40094652164382</v>
       </c>
       <c r="W39" t="n">
-        <v>65.63985006187372</v>
+        <v>65.63985006187386</v>
       </c>
       <c r="X39" t="n">
-        <v>9.860831706423454</v>
+        <v>9.860831706423596</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.27526137322801</v>
+        <v>27.27526137322815</v>
       </c>
     </row>
     <row r="40">
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.69657002817692</v>
+        <v>15.69657002817705</v>
       </c>
       <c r="S40" t="n">
-        <v>24.99567707362428</v>
+        <v>24.99567707362442</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>64.25501284475419</v>
+        <v>64.25501284475433</v>
       </c>
       <c r="V40" t="n">
-        <v>3.473906374014916</v>
+        <v>3.473906374015058</v>
       </c>
       <c r="W40" t="n">
-        <v>68.58749119394386</v>
+        <v>68.587491193944</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,43 +25642,43 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.9919674016289</v>
+        <v>424.9919674016291</v>
       </c>
       <c r="H41" t="n">
-        <v>357.2822362588244</v>
+        <v>357.2822362588245</v>
       </c>
       <c r="I41" t="n">
-        <v>283.5483468001686</v>
+        <v>283.5483468001687</v>
       </c>
       <c r="J41" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K41" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L41" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M41" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N41" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O41" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P41" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q41" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861731</v>
       </c>
       <c r="R41" t="n">
-        <v>255.4693823876898</v>
+        <v>255.4693823876899</v>
       </c>
       <c r="S41" t="n">
-        <v>253.4872300337893</v>
+        <v>253.4872300337895</v>
       </c>
       <c r="T41" t="n">
         <v>219.7538146541842</v>
@@ -25687,7 +25687,7 @@
         <v>247.9220803584497</v>
       </c>
       <c r="V41" t="n">
-        <v>308.2281821605244</v>
+        <v>308.22818216053</v>
       </c>
       <c r="W41" t="n">
         <v>317.0122616388729</v>
@@ -25718,7 +25718,7 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F42" t="n">
-        <v>184.1437201392488</v>
+        <v>184.143720139249</v>
       </c>
       <c r="G42" t="n">
         <v>169.5432308881461</v>
@@ -25733,31 +25733,31 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K42" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L42" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M42" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N42" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O42" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P42" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R42" t="n">
         <v>186.5647860222253</v>
       </c>
       <c r="S42" t="n">
-        <v>224.7145941684568</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T42" t="n">
         <v>241.4630016450422</v>
@@ -25797,7 +25797,7 @@
         <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>126.9717133511002</v>
       </c>
       <c r="G43" t="n">
         <v>169.8483733521475</v>
@@ -25809,22 +25809,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J43" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K43" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L43" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M43" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N43" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O43" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P43" t="n">
         <v>141.8835813306875</v>
@@ -25833,7 +25833,7 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R43" t="n">
-        <v>244.3926134002114</v>
+        <v>244.3926134002113</v>
       </c>
       <c r="S43" t="n">
         <v>253.6917204456587</v>
@@ -25873,46 +25873,46 @@
         <v>306.6407632727974</v>
       </c>
       <c r="E44" t="n">
-        <v>352.2387279966206</v>
+        <v>352.2387279966208</v>
       </c>
       <c r="F44" t="n">
-        <v>396.4306022709785</v>
+        <v>396.4306022709786</v>
       </c>
       <c r="G44" t="n">
-        <v>424.9919674016289</v>
+        <v>424.9919674016292</v>
       </c>
       <c r="H44" t="n">
-        <v>357.2822362588244</v>
+        <v>357.2822362588246</v>
       </c>
       <c r="I44" t="n">
-        <v>283.5483468001686</v>
+        <v>283.5483468001687</v>
       </c>
       <c r="J44" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K44" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L44" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M44" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N44" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O44" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P44" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q44" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R44" t="n">
-        <v>255.4693823876898</v>
+        <v>255.4693823876897</v>
       </c>
       <c r="S44" t="n">
         <v>253.4872300337893</v>
@@ -25924,16 +25924,16 @@
         <v>247.9220803584497</v>
       </c>
       <c r="V44" t="n">
-        <v>308.2281821605244</v>
+        <v>308.2281821605246</v>
       </c>
       <c r="W44" t="n">
-        <v>317.0122616388729</v>
+        <v>317.0122616388732</v>
       </c>
       <c r="X44" t="n">
-        <v>341.4686393609607</v>
+        <v>341.4686393609609</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.0096112764976</v>
+        <v>375.0096112764978</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>195.559634637931</v>
+        <v>195.5596346379405</v>
       </c>
       <c r="C45" t="n">
         <v>214.7813755111856</v>
@@ -25955,7 +25955,7 @@
         <v>197.9362491610792</v>
       </c>
       <c r="F45" t="n">
-        <v>184.1437201392488</v>
+        <v>184.143720139249</v>
       </c>
       <c r="G45" t="n">
         <v>169.5432308881461</v>
@@ -25970,25 +25970,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K45" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L45" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M45" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N45" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O45" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P45" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R45" t="n">
         <v>186.5647860222253</v>
@@ -26000,7 +26000,7 @@
         <v>241.4630016450422</v>
       </c>
       <c r="U45" t="n">
-        <v>257.993352147071</v>
+        <v>257.9933521470729</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26046,22 +26046,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J46" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K46" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L46" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M46" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N46" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O46" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P46" t="n">
         <v>141.8835813306875</v>
@@ -26070,7 +26070,7 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R46" t="n">
-        <v>244.3926134002114</v>
+        <v>244.3926134002113</v>
       </c>
       <c r="S46" t="n">
         <v>253.6917204456587</v>
@@ -26079,7 +26079,7 @@
         <v>215.3794721104714</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9510562167886</v>
+        <v>292.9510562167889</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652939.3457567082</v>
+        <v>652939.3457567083</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652939.3457567083</v>
+        <v>652939.3457567084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652939.3457567086</v>
+        <v>652939.3457567084</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652939.3457567086</v>
+        <v>652939.3457567084</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652939.3457567083</v>
+        <v>652939.3457567084</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652939.3457567083</v>
+        <v>652939.3457567086</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>172128.7841713438</v>
+        <v>172128.7841713434</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>172128.7841713438</v>
+        <v>172128.7841713434</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996991.2386902556</v>
+        <v>996991.2386902554</v>
       </c>
       <c r="C2" t="n">
-        <v>996991.2386902556</v>
+        <v>996991.2386902552</v>
       </c>
       <c r="D2" t="n">
-        <v>996991.2386902556</v>
+        <v>996991.2386902554</v>
       </c>
       <c r="E2" t="n">
-        <v>870585.7943422789</v>
+        <v>870585.7943422785</v>
       </c>
       <c r="F2" t="n">
-        <v>870585.7943422787</v>
+        <v>870585.7943422783</v>
       </c>
       <c r="G2" t="n">
-        <v>870585.794342279</v>
+        <v>870585.7943422782</v>
       </c>
       <c r="H2" t="n">
-        <v>870585.7943422787</v>
+        <v>870585.7943422785</v>
       </c>
       <c r="I2" t="n">
-        <v>870585.7943422791</v>
+        <v>870585.7943422786</v>
       </c>
       <c r="J2" t="n">
-        <v>870585.794342279</v>
+        <v>870585.7943422786</v>
       </c>
       <c r="K2" t="n">
-        <v>870585.7943422787</v>
+        <v>870585.7943422785</v>
       </c>
       <c r="L2" t="n">
-        <v>870585.794342279</v>
+        <v>870585.7943422782</v>
       </c>
       <c r="M2" t="n">
-        <v>870585.7943422787</v>
+        <v>870585.7943422786</v>
       </c>
       <c r="N2" t="n">
-        <v>870585.7943422791</v>
+        <v>870585.7943422785</v>
       </c>
       <c r="O2" t="n">
-        <v>229505.0455617917</v>
+        <v>229505.0455617912</v>
       </c>
       <c r="P2" t="n">
-        <v>229505.0455617917</v>
+        <v>229505.0455617911</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>484739.6120673175</v>
+        <v>484739.6120673176</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>182956.8346976275</v>
+        <v>182956.8346976276</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>365907.7841844986</v>
+        <v>365907.7841844985</v>
       </c>
       <c r="F4" t="n">
-        <v>365907.7841844989</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="G4" t="n">
         <v>365907.7841844987</v>
       </c>
       <c r="H4" t="n">
-        <v>365907.7841844989</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="I4" t="n">
-        <v>365907.7841844989</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="J4" t="n">
-        <v>365907.7841844987</v>
+        <v>365907.7841844986</v>
       </c>
       <c r="K4" t="n">
-        <v>365907.7841844989</v>
+        <v>365907.7841844988</v>
       </c>
       <c r="L4" t="n">
         <v>365907.7841844987</v>
       </c>
       <c r="M4" t="n">
-        <v>365907.7841844989</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="N4" t="n">
-        <v>365907.7841844989</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-2.629163637870716e-10</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-2.629163637870717e-10</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>27414.9954676245</v>
       </c>
       <c r="G5" t="n">
-        <v>27414.99546762451</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="H5" t="n">
-        <v>27414.99546762451</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="I5" t="n">
-        <v>27414.99546762451</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="J5" t="n">
         <v>27414.99546762451</v>
@@ -26499,19 +26499,19 @@
         <v>27414.99546762451</v>
       </c>
       <c r="L5" t="n">
-        <v>27414.99546762451</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="M5" t="n">
-        <v>27414.99546762451</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="N5" t="n">
-        <v>27414.99546762451</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="O5" t="n">
-        <v>8188.747797380945</v>
+        <v>8188.747797380931</v>
       </c>
       <c r="P5" t="n">
-        <v>8188.747797380945</v>
+        <v>8188.747797380931</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394313.8650159193</v>
+        <v>394261.1259557268</v>
       </c>
       <c r="C6" t="n">
-        <v>394313.8650159193</v>
+        <v>394261.1259557266</v>
       </c>
       <c r="D6" t="n">
-        <v>394313.8650159193</v>
+        <v>394261.1259557268</v>
       </c>
       <c r="E6" t="n">
-        <v>-7476.597377161721</v>
+        <v>-10689.47254605399</v>
       </c>
       <c r="F6" t="n">
-        <v>477263.0146901553</v>
+        <v>474050.1395212631</v>
       </c>
       <c r="G6" t="n">
-        <v>477263.0146901558</v>
+        <v>474050.139521263</v>
       </c>
       <c r="H6" t="n">
-        <v>477263.0146901553</v>
+        <v>474050.1395212634</v>
       </c>
       <c r="I6" t="n">
-        <v>477263.0146901557</v>
+        <v>474050.1395212635</v>
       </c>
       <c r="J6" t="n">
-        <v>294306.1799925283</v>
+        <v>291093.304823636</v>
       </c>
       <c r="K6" t="n">
-        <v>477263.0146901553</v>
+        <v>474050.1395212632</v>
       </c>
       <c r="L6" t="n">
-        <v>477263.0146901558</v>
+        <v>474050.1395212632</v>
       </c>
       <c r="M6" t="n">
-        <v>477263.0146901553</v>
+        <v>474050.1395212635</v>
       </c>
       <c r="N6" t="n">
-        <v>477263.0146901557</v>
+        <v>474050.1395212634</v>
       </c>
       <c r="O6" t="n">
-        <v>221316.2977644107</v>
+        <v>202076.4038760065</v>
       </c>
       <c r="P6" t="n">
-        <v>221316.2977644107</v>
+        <v>202076.4038760064</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J2" t="n">
         <v>228.6960433720344</v>
@@ -26715,13 +26715,13 @@
         <v>228.6960433720344</v>
       </c>
       <c r="L2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="M2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="N2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="F3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="G3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="H3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="I3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="J3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="K3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="L3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="M3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="N3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="O3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="P3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>375.6306329073827</v>
+        <v>375.6306329073829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J11" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K11" t="n">
-        <v>165.5590727895307</v>
+        <v>165.559072789526</v>
       </c>
       <c r="L11" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M11" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N11" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O11" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P11" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T11" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="12">
@@ -28195,49 +28195,49 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K12" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L12" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M12" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N12" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O12" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P12" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R12" t="n">
         <v>186.5647860222253</v>
       </c>
       <c r="S12" t="n">
-        <v>224.7145941684473</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T12" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U12" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V12" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W12" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X12" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y12" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="13">
@@ -28271,22 +28271,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J13" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K13" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L13" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M13" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N13" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O13" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P13" t="n">
         <v>141.8835813306875</v>
@@ -28295,22 +28295,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R13" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S13" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T13" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U13" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V13" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W13" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X13" t="n">
         <v>214.9420418072343</v>
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J14" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K14" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L14" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M14" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N14" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O14" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P14" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T14" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y14" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="15">
@@ -28432,25 +28432,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K15" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L15" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M15" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N15" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O15" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P15" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R15" t="n">
         <v>186.5647860222253</v>
@@ -28459,22 +28459,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T15" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U15" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V15" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W15" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X15" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y15" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="16">
@@ -28508,22 +28508,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J16" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K16" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L16" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M16" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N16" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O16" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P16" t="n">
         <v>141.8835813306875</v>
@@ -28532,22 +28532,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R16" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S16" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T16" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U16" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V16" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W16" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X16" t="n">
         <v>214.9420418072343</v>
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J17" t="n">
-        <v>166.0340453896372</v>
+        <v>166.0340453896422</v>
       </c>
       <c r="K17" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L17" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M17" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N17" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O17" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P17" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T17" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y17" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="18">
@@ -28669,25 +28669,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K18" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L18" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M18" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N18" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464786</v>
       </c>
       <c r="O18" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P18" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R18" t="n">
         <v>186.5647860222253</v>
@@ -28696,22 +28696,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T18" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U18" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V18" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W18" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X18" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y18" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="19">
@@ -28745,13 +28745,13 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J19" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K19" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L19" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M19" t="n">
         <v>119.5740873866287</v>
@@ -28760,7 +28760,7 @@
         <v>103.8334287112502</v>
       </c>
       <c r="O19" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P19" t="n">
         <v>141.8835813306875</v>
@@ -28769,22 +28769,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R19" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S19" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T19" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U19" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V19" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W19" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X19" t="n">
         <v>214.9420418072343</v>
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J20" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K20" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L20" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M20" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N20" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O20" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P20" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T20" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y20" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="21">
@@ -28906,25 +28906,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K21" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L21" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M21" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N21" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O21" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P21" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R21" t="n">
         <v>186.5647860222253</v>
@@ -28933,22 +28933,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T21" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U21" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V21" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W21" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X21" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y21" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="22">
@@ -28982,22 +28982,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J22" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K22" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L22" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M22" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N22" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O22" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P22" t="n">
         <v>141.8835813306875</v>
@@ -29006,22 +29006,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R22" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S22" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T22" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U22" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V22" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W22" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X22" t="n">
         <v>214.9420418072343</v>
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J23" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K23" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L23" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M23" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N23" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O23" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P23" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T23" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y23" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="24">
@@ -29143,25 +29143,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K24" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L24" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M24" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N24" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O24" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P24" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R24" t="n">
         <v>186.5647860222253</v>
@@ -29170,22 +29170,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T24" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U24" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V24" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W24" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X24" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y24" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="25">
@@ -29219,22 +29219,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J25" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K25" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L25" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M25" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N25" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O25" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P25" t="n">
         <v>141.8835813306875</v>
@@ -29243,22 +29243,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R25" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S25" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T25" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U25" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V25" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W25" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X25" t="n">
         <v>214.9420418072343</v>
@@ -29301,25 +29301,25 @@
         <v>166.0340453896422</v>
       </c>
       <c r="K26" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L26" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M26" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N26" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O26" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P26" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861702</v>
       </c>
       <c r="R26" t="n">
         <v>228.6960433720344</v>
@@ -29380,31 +29380,31 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K27" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L27" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M27" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N27" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O27" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P27" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R27" t="n">
         <v>186.5647860222253</v>
       </c>
       <c r="S27" t="n">
-        <v>224.7145941684495</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T27" t="n">
         <v>228.6960433720344</v>
@@ -29456,22 +29456,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J28" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K28" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L28" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M28" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N28" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O28" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P28" t="n">
         <v>141.8835813306875</v>
@@ -29538,25 +29538,25 @@
         <v>166.0340453896422</v>
       </c>
       <c r="K29" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L29" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M29" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N29" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O29" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P29" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q29" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R29" t="n">
         <v>228.6960433720344</v>
@@ -29617,25 +29617,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K30" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L30" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M30" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N30" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O30" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P30" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q30" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R30" t="n">
         <v>186.5647860222253</v>
@@ -29693,22 +29693,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J31" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K31" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L31" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M31" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N31" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O31" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P31" t="n">
         <v>141.8835813306875</v>
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J32" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K32" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L32" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M32" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N32" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O32" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P32" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q32" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T32" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y32" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="33">
@@ -29854,25 +29854,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K33" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L33" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M33" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N33" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O33" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P33" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R33" t="n">
         <v>186.5647860222253</v>
@@ -29881,22 +29881,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T33" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U33" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V33" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W33" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X33" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y33" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="34">
@@ -29930,22 +29930,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J34" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K34" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L34" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M34" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N34" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O34" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P34" t="n">
         <v>141.8835813306875</v>
@@ -29954,22 +29954,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R34" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S34" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T34" t="n">
-        <v>215.3794721104549</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U34" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V34" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W34" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X34" t="n">
         <v>214.9420418072343</v>
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J35" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K35" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L35" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M35" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N35" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O35" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P35" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q35" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T35" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y35" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="36">
@@ -30091,25 +30091,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K36" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L36" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M36" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N36" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O36" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P36" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R36" t="n">
         <v>186.5647860222253</v>
@@ -30118,22 +30118,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T36" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U36" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V36" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W36" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X36" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y36" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="37">
@@ -30167,22 +30167,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J37" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K37" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L37" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M37" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N37" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O37" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P37" t="n">
         <v>141.8835813306875</v>
@@ -30191,22 +30191,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R37" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S37" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T37" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U37" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V37" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W37" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X37" t="n">
         <v>214.9420418072343</v>
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="C38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="D38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="E38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="F38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="G38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="H38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="I38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="J38" t="n">
         <v>166.0340453896422</v>
       </c>
       <c r="K38" t="n">
-        <v>165.5590727895307</v>
+        <v>165.5590727895306</v>
       </c>
       <c r="L38" t="n">
-        <v>144.8195957733376</v>
+        <v>144.8195957733374</v>
       </c>
       <c r="M38" t="n">
-        <v>109.1570415752289</v>
+        <v>109.1570415752287</v>
       </c>
       <c r="N38" t="n">
-        <v>103.3501463092982</v>
+        <v>103.350146309298</v>
       </c>
       <c r="O38" t="n">
-        <v>119.4792988857735</v>
+        <v>119.4792988857733</v>
       </c>
       <c r="P38" t="n">
-        <v>158.6032480505632</v>
+        <v>158.6032480505631</v>
       </c>
       <c r="Q38" t="n">
-        <v>198.1758615861729</v>
+        <v>198.1758615861728</v>
       </c>
       <c r="R38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T38" t="n">
         <v>219.7538146541842</v>
       </c>
       <c r="U38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y38" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="39">
@@ -30328,25 +30328,25 @@
         <v>129.7766200931642</v>
       </c>
       <c r="K39" t="n">
-        <v>93.5244797319078</v>
+        <v>93.52447973190772</v>
       </c>
       <c r="L39" t="n">
-        <v>49.7207305188995</v>
+        <v>49.72073051889942</v>
       </c>
       <c r="M39" t="n">
-        <v>26.24911018875625</v>
+        <v>26.24911018875613</v>
       </c>
       <c r="N39" t="n">
-        <v>3.293292505464876</v>
+        <v>3.293292505464734</v>
       </c>
       <c r="O39" t="n">
-        <v>39.48460530404498</v>
+        <v>39.48460530404486</v>
       </c>
       <c r="P39" t="n">
-        <v>63.42344510940336</v>
+        <v>63.42344510940327</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.3349683601957</v>
+        <v>124.3349683601956</v>
       </c>
       <c r="R39" t="n">
         <v>186.5647860222253</v>
@@ -30355,22 +30355,22 @@
         <v>224.7145941684587</v>
       </c>
       <c r="T39" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="U39" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V39" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W39" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X39" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="Y39" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
     </row>
     <row r="40">
@@ -30404,22 +30404,22 @@
         <v>177.3784136874346</v>
       </c>
       <c r="J40" t="n">
-        <v>158.4777330829414</v>
+        <v>158.4777330829413</v>
       </c>
       <c r="K40" t="n">
         <v>130.9488479934093</v>
       </c>
       <c r="L40" t="n">
-        <v>118.4816420624657</v>
+        <v>118.4816420624656</v>
       </c>
       <c r="M40" t="n">
         <v>119.5740873866287</v>
       </c>
       <c r="N40" t="n">
-        <v>103.8334287112502</v>
+        <v>103.8334287112501</v>
       </c>
       <c r="O40" t="n">
-        <v>129.2491687474579</v>
+        <v>129.2491687474578</v>
       </c>
       <c r="P40" t="n">
         <v>141.8835813306875</v>
@@ -30428,22 +30428,22 @@
         <v>189.4754020788347</v>
       </c>
       <c r="R40" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="S40" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="T40" t="n">
         <v>215.3794721104714</v>
       </c>
       <c r="U40" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="V40" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="W40" t="n">
-        <v>228.6960433720344</v>
+        <v>228.6960433720343</v>
       </c>
       <c r="X40" t="n">
         <v>214.9420418072343</v>
@@ -30477,10 +30477,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.077696578835832e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30504,13 +30504,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-5.646636703720868e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30550,7 +30550,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30629,7 +30629,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -30705,19 +30705,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30756,16 +30756,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
     </row>
     <row r="45">
@@ -30784,10 +30784,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-9.480248871045232e-12</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -30911,7 +30911,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H11" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I11" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J11" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K11" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L11" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M11" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N11" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O11" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P11" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R11" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S11" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T11" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U11" t="n">
         <v>0.1208058316888064</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H12" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I12" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J12" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K12" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L12" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M12" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N12" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O12" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P12" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R12" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S12" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T12" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H13" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I13" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J13" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K13" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L13" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M13" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N13" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O13" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P13" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R13" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S13" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T13" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H14" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I14" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J14" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K14" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L14" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M14" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N14" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O14" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P14" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R14" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S14" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T14" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U14" t="n">
         <v>0.1208058316888064</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H15" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I15" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J15" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K15" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L15" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M15" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N15" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O15" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P15" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R15" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S15" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T15" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H16" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I16" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J16" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K16" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L16" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M16" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N16" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O16" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P16" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R16" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S16" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T16" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H17" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I17" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J17" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K17" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L17" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M17" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N17" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O17" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P17" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R17" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S17" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T17" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U17" t="n">
         <v>0.1208058316888064</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H18" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I18" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J18" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K18" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L18" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M18" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N18" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O18" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P18" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R18" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S18" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T18" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H19" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I19" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J19" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K19" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L19" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M19" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N19" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O19" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P19" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R19" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S19" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T19" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H20" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I20" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J20" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K20" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L20" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M20" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N20" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O20" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P20" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R20" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S20" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T20" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U20" t="n">
         <v>0.1208058316888064</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H21" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I21" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J21" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K21" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L21" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M21" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N21" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O21" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P21" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R21" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S21" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T21" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H22" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I22" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J22" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K22" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L22" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M22" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N22" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O22" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P22" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R22" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S22" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T22" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H23" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I23" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J23" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K23" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L23" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M23" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N23" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O23" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P23" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R23" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S23" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T23" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U23" t="n">
         <v>0.1208058316888064</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H24" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I24" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J24" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K24" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L24" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M24" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N24" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O24" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P24" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R24" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S24" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T24" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H25" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I25" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J25" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K25" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L25" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M25" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N25" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O25" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P25" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q25" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R25" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S25" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T25" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H26" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I26" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J26" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K26" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L26" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M26" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N26" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O26" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P26" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R26" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S26" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T26" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U26" t="n">
         <v>0.1208058316888064</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H27" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I27" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J27" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K27" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L27" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M27" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N27" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O27" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P27" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R27" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S27" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T27" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H28" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I28" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J28" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K28" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L28" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M28" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N28" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O28" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P28" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R28" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S28" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T28" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H29" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I29" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J29" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K29" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L29" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M29" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N29" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O29" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P29" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R29" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S29" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T29" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U29" t="n">
         <v>0.1208058316888064</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H30" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I30" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J30" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K30" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L30" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M30" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N30" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O30" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P30" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R30" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S30" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T30" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H31" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I31" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J31" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K31" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L31" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M31" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N31" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O31" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P31" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R31" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S31" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T31" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H32" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I32" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J32" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K32" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L32" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M32" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N32" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O32" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P32" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R32" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S32" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T32" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U32" t="n">
         <v>0.1208058316888064</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H33" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I33" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J33" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K33" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L33" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M33" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N33" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O33" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P33" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R33" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S33" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T33" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H34" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I34" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J34" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K34" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L34" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M34" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N34" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O34" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P34" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R34" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S34" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T34" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H35" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I35" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J35" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K35" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L35" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M35" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N35" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O35" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P35" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R35" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S35" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T35" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U35" t="n">
         <v>0.1208058316888064</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H36" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I36" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J36" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K36" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L36" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M36" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N36" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O36" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P36" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R36" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S36" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T36" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H37" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I37" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J37" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K37" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L37" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M37" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N37" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O37" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P37" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R37" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S37" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T37" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H38" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I38" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J38" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K38" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L38" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M38" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N38" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O38" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P38" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R38" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S38" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T38" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U38" t="n">
         <v>0.1208058316888064</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H39" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I39" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J39" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K39" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L39" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M39" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N39" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O39" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P39" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R39" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S39" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T39" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H40" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I40" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J40" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K40" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L40" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M40" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N40" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O40" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P40" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R40" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S40" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T40" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H41" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I41" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J41" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K41" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L41" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M41" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N41" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O41" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P41" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R41" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S41" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T41" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U41" t="n">
         <v>0.1208058316888064</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H42" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I42" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J42" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K42" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L42" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M42" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N42" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O42" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P42" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R42" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S42" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T42" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H43" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I43" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J43" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K43" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L43" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M43" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N43" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O43" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P43" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R43" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S43" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T43" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.51007289611008</v>
+        <v>1.510072896110081</v>
       </c>
       <c r="H44" t="n">
-        <v>15.46503404728736</v>
+        <v>15.46503404728737</v>
       </c>
       <c r="I44" t="n">
-        <v>58.21708532728391</v>
+        <v>58.21708532728395</v>
       </c>
       <c r="J44" t="n">
-        <v>128.165549466223</v>
+        <v>128.1655494662231</v>
       </c>
       <c r="K44" t="n">
-        <v>192.0869351585627</v>
+        <v>192.0869351585629</v>
       </c>
       <c r="L44" t="n">
-        <v>238.3008285528917</v>
+        <v>238.3008285528918</v>
       </c>
       <c r="M44" t="n">
-        <v>265.1555874190893</v>
+        <v>265.1555874190894</v>
       </c>
       <c r="N44" t="n">
-        <v>269.4460820351621</v>
+        <v>269.4460820351622</v>
       </c>
       <c r="O44" t="n">
-        <v>254.4302946744674</v>
+        <v>254.4302946744676</v>
       </c>
       <c r="P44" t="n">
-        <v>217.1503700517498</v>
+        <v>217.1503700517499</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.0708844598075</v>
+        <v>163.0708844598076</v>
       </c>
       <c r="R44" t="n">
-        <v>94.85711656027489</v>
+        <v>94.85711656027495</v>
       </c>
       <c r="S44" t="n">
-        <v>34.41078612010848</v>
+        <v>34.4107861201085</v>
       </c>
       <c r="T44" t="n">
-        <v>6.610344102721879</v>
+        <v>6.610344102721882</v>
       </c>
       <c r="U44" t="n">
         <v>0.1208058316888064</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8079602292724836</v>
+        <v>0.807960229272484</v>
       </c>
       <c r="H45" t="n">
-        <v>7.80319484586846</v>
+        <v>7.803194845868465</v>
       </c>
       <c r="I45" t="n">
-        <v>27.81792894644297</v>
+        <v>27.81792894644298</v>
       </c>
       <c r="J45" t="n">
-        <v>76.33452324016916</v>
+        <v>76.33452324016922</v>
       </c>
       <c r="K45" t="n">
-        <v>130.4678586014255</v>
+        <v>130.4678586014256</v>
       </c>
       <c r="L45" t="n">
-        <v>175.4301366233961</v>
+        <v>175.4301366233962</v>
       </c>
       <c r="M45" t="n">
-        <v>204.7186949345235</v>
+        <v>204.7186949345237</v>
       </c>
       <c r="N45" t="n">
-        <v>210.1369896299518</v>
+        <v>210.1369896299519</v>
       </c>
       <c r="O45" t="n">
-        <v>192.2342919181772</v>
+        <v>192.2342919181773</v>
       </c>
       <c r="P45" t="n">
-        <v>154.2849669388833</v>
+        <v>154.2849669388834</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1354145295893</v>
+        <v>103.1354145295894</v>
       </c>
       <c r="R45" t="n">
-        <v>50.16440791921615</v>
+        <v>50.16440791921617</v>
       </c>
       <c r="S45" t="n">
-        <v>15.00750689021476</v>
+        <v>15.00750689021477</v>
       </c>
       <c r="T45" t="n">
-        <v>3.256646713602684</v>
+        <v>3.256646713602687</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05315527824161078</v>
+        <v>0.05315527824161081</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6773667150788867</v>
+        <v>0.6773667150788871</v>
       </c>
       <c r="H46" t="n">
-        <v>6.022405884974106</v>
+        <v>6.02240588497411</v>
       </c>
       <c r="I46" t="n">
-        <v>20.37026448619053</v>
+        <v>20.37026448619054</v>
       </c>
       <c r="J46" t="n">
-        <v>47.88982675607729</v>
+        <v>47.88982675607732</v>
       </c>
       <c r="K46" t="n">
-        <v>78.69769653371064</v>
+        <v>78.69769653371068</v>
       </c>
       <c r="L46" t="n">
-        <v>100.7059568945465</v>
+        <v>100.7059568945466</v>
       </c>
       <c r="M46" t="n">
         <v>106.1803115282295</v>
       </c>
       <c r="N46" t="n">
-        <v>103.6555810447537</v>
+        <v>103.6555810447538</v>
       </c>
       <c r="O46" t="n">
-        <v>95.74270623678667</v>
+        <v>95.74270623678673</v>
       </c>
       <c r="P46" t="n">
-        <v>81.92442524917732</v>
+        <v>81.92442524917738</v>
       </c>
       <c r="Q46" t="n">
-        <v>56.72022556901478</v>
+        <v>56.72022556901481</v>
       </c>
       <c r="R46" t="n">
-        <v>30.45687066163794</v>
+        <v>30.45687066163795</v>
       </c>
       <c r="S46" t="n">
-        <v>11.80465448005659</v>
+        <v>11.8046544800566</v>
       </c>
       <c r="T46" t="n">
-        <v>2.894203237155243</v>
+        <v>2.894203237155244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03694727536793932</v>
+        <v>0.03694727536793934</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-12</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-2.643218977027573e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
